--- a/Documents/天津大学.xlsx
+++ b/Documents/天津大学.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13635" windowHeight="8055" tabRatio="500" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9615" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URLS" sheetId="2" r:id="rId1"/>
-    <sheet name="字段" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="字段" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <oleSize ref="K40:P61"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:O22"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="344">
   <si>
     <t>字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -910,13 +911,163 @@
   </si>
   <si>
     <t>http://www.etju.com/netfiles3web/(y5ene1rpiarkyjnd132p4gjv)/ctlogin.aspx</t>
+  </si>
+  <si>
+    <t>春季</t>
+  </si>
+  <si>
+    <t>121*Z06Z</t>
+  </si>
+  <si>
+    <t>财务管理</t>
+  </si>
+  <si>
+    <t>专科</t>
+  </si>
+  <si>
+    <t>自主</t>
+  </si>
+  <si>
+    <t>121*Z19Z</t>
+  </si>
+  <si>
+    <t>电子商务</t>
+  </si>
+  <si>
+    <t>121*Z29Z</t>
+  </si>
+  <si>
+    <t>物流管理</t>
+  </si>
+  <si>
+    <t>121*Z33Z</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>121*Z35Z</t>
+  </si>
+  <si>
+    <t>工商企业管理</t>
+  </si>
+  <si>
+    <t>121*Z36Z</t>
+  </si>
+  <si>
+    <t>房地产经营与估价</t>
+  </si>
+  <si>
+    <t>121*Z39Z</t>
+  </si>
+  <si>
+    <t>计算机网络技术</t>
+  </si>
+  <si>
+    <t>121*Z41Z</t>
+  </si>
+  <si>
+    <t>工程造价</t>
+  </si>
+  <si>
+    <t>121*Z42Z</t>
+  </si>
+  <si>
+    <t>建筑工程技术</t>
+  </si>
+  <si>
+    <t>121*Z43Z</t>
+  </si>
+  <si>
+    <t>电气自动化技术</t>
+  </si>
+  <si>
+    <t>121*Z46Z</t>
+  </si>
+  <si>
+    <t>法律事务</t>
+  </si>
+  <si>
+    <t>121ZB01Z</t>
+  </si>
+  <si>
+    <t>信息管理与信息系统</t>
+  </si>
+  <si>
+    <t>专升本</t>
+  </si>
+  <si>
+    <t>121ZB02Z</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>121ZB04Z</t>
+  </si>
+  <si>
+    <t>工商管理</t>
+  </si>
+  <si>
+    <t>121ZB05Z</t>
+  </si>
+  <si>
+    <t>土木工程</t>
+  </si>
+  <si>
+    <t>121ZB06Z</t>
+  </si>
+  <si>
+    <t>121ZB07Z</t>
+  </si>
+  <si>
+    <t>法学</t>
+  </si>
+  <si>
+    <t>121ZB09Z</t>
+  </si>
+  <si>
+    <t>房地产开发与经营</t>
+  </si>
+  <si>
+    <t>121ZB19Z</t>
+  </si>
+  <si>
+    <t>121ZB21Z</t>
+  </si>
+  <si>
+    <t>公共事业管理</t>
+  </si>
+  <si>
+    <t>121ZB28Z</t>
+  </si>
+  <si>
+    <t>工程造价管理</t>
+  </si>
+  <si>
+    <t>121ZB29Z</t>
+  </si>
+  <si>
+    <t>121ZB44Z</t>
+  </si>
+  <si>
+    <t>电气工程及其自动化</t>
+  </si>
+  <si>
+    <t>121ZB45Z</t>
+  </si>
+  <si>
+    <t>金融学</t>
+  </si>
+  <si>
+    <t>教学计划在登录首页获取</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -979,21 +1130,54 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EAEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1022,13 +1206,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="19" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1379,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1390,7 +1580,7 @@
     <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>289</v>
       </c>
@@ -1398,7 +1588,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -1406,8 +1596,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:3"/>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -1432,10 +1621,659 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O82"/>
+  <sheetViews>
+    <sheetView topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1449,7 +2287,7 @@
     <col min="15" max="15" width="39.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" customFormat="1" ht="18.75">
+    <row r="2" spans="1:15" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1520,7 +2358,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:16" customFormat="1" ht="18.75">
+    <row r="3" spans="1:15" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -1540,7 +2378,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:16" customFormat="1" ht="18.75">
+    <row r="4" spans="1:15" ht="18.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +2401,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:16" customFormat="1" ht="18.75">
+    <row r="5" spans="1:15" ht="18.75">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +2418,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:16" customFormat="1" ht="18.75">
+    <row r="6" spans="1:15" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1600,7 +2438,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:16" customFormat="1" ht="18.75">
+    <row r="7" spans="1:15" ht="18.75">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +2461,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:16" customFormat="1" ht="18.75">
+    <row r="8" spans="1:15" ht="18.75">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +2478,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:16" customFormat="1" ht="18.75">
+    <row r="9" spans="1:15" ht="18.75">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +2495,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:16" customFormat="1" ht="18.75">
+    <row r="10" spans="1:15" ht="18.75">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +2518,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:16" customFormat="1" ht="18.75">
+    <row r="11" spans="1:15" ht="18.75">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -1700,7 +2538,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:16" customFormat="1" ht="18.75">
+    <row r="12" spans="1:15" ht="18.75">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +2552,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:16" customFormat="1" ht="18.75">
+    <row r="13" spans="1:15" ht="18.75">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +2569,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:16" customFormat="1" ht="18.75">
+    <row r="14" spans="1:15" ht="18.75">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -1751,7 +2589,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:16" customFormat="1">
+    <row r="15" spans="1:15">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -1765,7 +2603,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:16" customFormat="1">
+    <row r="16" spans="1:15">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +2617,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:16" customFormat="1" ht="18.75">
+    <row r="17" spans="3:15" ht="18.75">
       <c r="C17" t="s">
         <v>18</v>
       </c>
@@ -1799,7 +2637,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:16" customFormat="1" ht="18.75">
+    <row r="18" spans="3:15" ht="18.75">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -1813,7 +2651,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:16" customFormat="1" ht="18.75">
+    <row r="19" spans="3:15" ht="18.75">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +2671,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:16" customFormat="1">
+    <row r="20" spans="3:15">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -1847,7 +2685,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:16" customFormat="1" ht="18.75">
+    <row r="21" spans="3:15" ht="18.75">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -1867,7 +2705,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:16" customFormat="1" ht="18.75">
+    <row r="22" spans="3:15" ht="18.75">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -1881,7 +2719,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:16" customFormat="1" ht="18.75">
+    <row r="23" spans="3:15" ht="18.75">
       <c r="C23" t="s">
         <v>24</v>
       </c>
@@ -1901,7 +2739,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:16" customFormat="1" ht="18.75">
+    <row r="24" spans="3:15" ht="18.75">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -1918,7 +2756,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:16" customFormat="1" ht="18.75">
+    <row r="25" spans="3:15" ht="18.75">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -1935,7 +2773,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:16" customFormat="1">
+    <row r="26" spans="3:15">
       <c r="C26" t="s">
         <v>27</v>
       </c>
@@ -1949,7 +2787,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:16" customFormat="1">
+    <row r="27" spans="3:15">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +2801,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:16" customFormat="1">
+    <row r="28" spans="3:15">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -1977,7 +2815,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1">
+    <row r="29" spans="3:15">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -1991,7 +2829,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:16" customFormat="1">
+    <row r="30" spans="3:15">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -2005,7 +2843,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:16" customFormat="1">
+    <row r="31" spans="3:15">
       <c r="C31" t="s">
         <v>32</v>
       </c>
@@ -2019,7 +2857,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:16" customFormat="1">
+    <row r="32" spans="3:15">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -2033,7 +2871,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:16" customFormat="1">
+    <row r="33" spans="3:15">
       <c r="C33" t="s">
         <v>34</v>
       </c>
@@ -2047,7 +2885,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1">
+    <row r="34" spans="3:15">
       <c r="C34" t="s">
         <v>35</v>
       </c>
@@ -2061,7 +2899,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1">
+    <row r="35" spans="3:15">
       <c r="C35" t="s">
         <v>36</v>
       </c>
@@ -2075,7 +2913,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:16" customFormat="1">
+    <row r="36" spans="3:15">
       <c r="C36" t="s">
         <v>37</v>
       </c>
@@ -2089,7 +2927,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:16" customFormat="1">
+    <row r="37" spans="3:15">
       <c r="C37" t="s">
         <v>38</v>
       </c>
@@ -2103,7 +2941,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1">
+    <row r="38" spans="3:15">
       <c r="C38" t="s">
         <v>39</v>
       </c>
@@ -2117,7 +2955,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:16" customFormat="1">
+    <row r="39" spans="3:15">
       <c r="C39" t="s">
         <v>40</v>
       </c>
@@ -2131,7 +2969,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:16" customFormat="1">
+    <row r="40" spans="3:15">
       <c r="C40" t="s">
         <v>41</v>
       </c>
@@ -2145,7 +2983,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:16" customFormat="1">
+    <row r="41" spans="3:15">
       <c r="C41" t="s">
         <v>42</v>
       </c>
@@ -2159,7 +2997,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:16" customFormat="1">
+    <row r="42" spans="3:15">
       <c r="C42" t="s">
         <v>43</v>
       </c>
@@ -2173,7 +3011,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:16" customFormat="1">
+    <row r="43" spans="3:15">
       <c r="C43" t="s">
         <v>44</v>
       </c>
@@ -2187,7 +3025,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:16" customFormat="1">
+    <row r="44" spans="3:15">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -2201,7 +3039,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:16" customFormat="1" ht="18.75">
+    <row r="45" spans="3:15" ht="18.75">
       <c r="C45" t="s">
         <v>46</v>
       </c>
@@ -2221,7 +3059,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="18.75">
+    <row r="46" spans="3:15" ht="18.75">
       <c r="C46" t="s">
         <v>47</v>
       </c>
@@ -2235,7 +3073,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:16" customFormat="1" ht="18.75">
+    <row r="47" spans="3:15" ht="18.75">
       <c r="C47" t="s">
         <v>48</v>
       </c>
@@ -2249,7 +3087,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="18.75">
+    <row r="48" spans="3:15" ht="18.75">
       <c r="C48" t="s">
         <v>49</v>
       </c>
@@ -2263,7 +3101,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:16" customFormat="1" ht="18.75">
+    <row r="49" spans="3:15" ht="18.75">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -2277,7 +3115,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:16" customFormat="1" ht="18.75">
+    <row r="50" spans="3:15" ht="18.75">
       <c r="C50" t="s">
         <v>51</v>
       </c>
@@ -2291,7 +3129,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:16" customFormat="1">
+    <row r="51" spans="3:15">
       <c r="C51" t="s">
         <v>52</v>
       </c>
@@ -2302,7 +3140,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:16" customFormat="1">
+    <row r="52" spans="3:15">
       <c r="C52" t="s">
         <v>53</v>
       </c>
@@ -2313,7 +3151,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:16" customFormat="1" ht="18.75">
+    <row r="53" spans="3:15" ht="18.75">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -2327,7 +3165,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:16" customFormat="1" ht="18.75">
+    <row r="54" spans="3:15" ht="18.75">
       <c r="C54" t="s">
         <v>55</v>
       </c>
@@ -2341,7 +3179,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="1:16" customFormat="1">
+    <row r="55" spans="3:15">
       <c r="C55" t="s">
         <v>56</v>
       </c>
@@ -2349,7 +3187,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:16" customFormat="1">
+    <row r="56" spans="3:15">
       <c r="C56" t="s">
         <v>57</v>
       </c>
@@ -2357,7 +3195,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:16" customFormat="1">
+    <row r="57" spans="3:15">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -2365,7 +3203,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:16" customFormat="1">
+    <row r="58" spans="3:15">
       <c r="C58" t="s">
         <v>59</v>
       </c>
@@ -2373,7 +3211,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:16" customFormat="1">
+    <row r="59" spans="3:15">
       <c r="C59" t="s">
         <v>60</v>
       </c>
@@ -2381,7 +3219,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:16" customFormat="1">
+    <row r="60" spans="3:15">
       <c r="C60" t="s">
         <v>61</v>
       </c>
@@ -2389,7 +3227,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:16" customFormat="1">
+    <row r="61" spans="3:15">
       <c r="C61" t="s">
         <v>62</v>
       </c>
@@ -2397,7 +3235,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:16" customFormat="1">
+    <row r="62" spans="3:15">
       <c r="C62" t="s">
         <v>63</v>
       </c>
@@ -2405,7 +3243,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:16" customFormat="1">
+    <row r="63" spans="3:15">
       <c r="C63" t="s">
         <v>64</v>
       </c>
@@ -2413,7 +3251,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:16" customFormat="1">
+    <row r="64" spans="3:15">
       <c r="C64" t="s">
         <v>65</v>
       </c>
@@ -2421,105 +3259,96 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="11:11">
       <c r="K65" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:12" customFormat="1">
+    <row r="66" spans="11:11">
       <c r="K66" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="11:11">
       <c r="K67" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:12" customFormat="1">
+    <row r="68" spans="11:11">
       <c r="K68" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="11:11">
       <c r="K69" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:12" customFormat="1">
+    <row r="70" spans="11:11">
       <c r="K70" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="11:11">
       <c r="K71" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:12" customFormat="1">
+    <row r="72" spans="11:11">
       <c r="K72" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="11:11">
       <c r="K73" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:12" customFormat="1">
+    <row r="74" spans="11:11">
       <c r="K74" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="11:11">
       <c r="K75" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:12" customFormat="1">
+    <row r="76" spans="11:11">
       <c r="K76" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="11:11">
       <c r="K77" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:12" customFormat="1">
+    <row r="78" spans="11:11">
       <c r="K78" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="11:11">
       <c r="K79" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:12" customFormat="1">
+    <row r="80" spans="11:11">
       <c r="K80" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:12" customFormat="1">
+    <row r="81" spans="11:11">
       <c r="K81" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:12" customFormat="1">
+    <row r="82" spans="11:11">
       <c r="K82" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:12"/>
-    <row r="84" spans="1:12" customFormat="1"/>
-    <row r="86" spans="1:12" customFormat="1"/>
-    <row r="88" spans="1:12" customFormat="1"/>
-    <row r="90" spans="1:12" customFormat="1"/>
-    <row r="92" spans="1:12" customFormat="1"/>
-    <row r="94" spans="1:12" customFormat="1"/>
-    <row r="96" spans="1:12" customFormat="1"/>
-    <row r="97" spans="1:11" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
